--- a/FP/result.xlsx
+++ b/FP/result.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\178\Data-Mining\FP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>ss-Twitter</t>
   </si>
@@ -58,13 +62,124 @@
   </si>
   <si>
     <t>STS-Test</t>
+  </si>
+  <si>
+    <t>gridsearchCV</t>
+  </si>
+  <si>
+    <t>hyperparameter</t>
+  </si>
+  <si>
+    <t>parameters = {'kernel':('linear', 'rbf','poly'), 'C':[1, 5, 10, 50], 'gamma' : [0.5, 1, 'auto']}</t>
+  </si>
+  <si>
+    <t>C=50, gamma=1,kernel='rbf'</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'gamma': 0.5, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>{'C': 10.0,  'max_iter': 100, 'multi_class': 'multinomial',  'solver': 'newton-cg'}</t>
+  </si>
+  <si>
+    <t>{'C': [ 0.001, 0.01, 0.1, 1,  10, 100, 1000]), 'max_iter': [100, 500, 1000,5000],  'multi_class': ('ovr', 'multinomial', 'auto'),  'solver': ('newton-cg', 'lbfgs', 'saga')}</t>
+  </si>
+  <si>
+    <t>{'C': 10.0, 'max_iter': 100, 'multi_class': 'ovr', 'solver': 'newton-cg'}</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>'C': [ 0.001, 0.01, 0.1, 1,  10, 100, 1000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'max_iter': [100, 500, 1000,5000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'multi_class': ('ovr', 'multinomial', 'auto')</t>
+  </si>
+  <si>
+    <t>'solver': ('newton-cg', 'lbfgs', 'saga')</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>'C': 10.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'max_iter': 100</t>
+  </si>
+  <si>
+    <t>multi_class': 'multinomial'</t>
+  </si>
+  <si>
+    <t>'solver': 'newton-cg'</t>
+  </si>
+  <si>
+    <t>'kernel':('linear', 'rbf','poly')</t>
+  </si>
+  <si>
+    <t>'C':[1, 5, 10, 50]</t>
+  </si>
+  <si>
+    <t>'gamma' : [0.5, 1, 'auto']</t>
+  </si>
+  <si>
+    <t>C=50</t>
+  </si>
+  <si>
+    <t>gamma=1</t>
+  </si>
+  <si>
+    <t>kernel='rbf'</t>
+  </si>
+  <si>
+    <t>{'n_estimators':[4000,8000], 'max_depth':[30, 60]}</t>
+  </si>
+  <si>
+    <t>'max_depth': 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'max_depth':[30, 60]</t>
+  </si>
+  <si>
+    <t>n_estimators':[4000,5000]</t>
+  </si>
+  <si>
+    <t>'n_estimators': 5000</t>
+  </si>
+  <si>
+    <t>'max_depth': 30, 'n_estimators': 4000</t>
+  </si>
+  <si>
+    <t>'var_smoothing':[1e-9,1e-10,1e-8]</t>
+  </si>
+  <si>
+    <t>'var_smoothing': 1e-09</t>
+  </si>
+  <si>
+    <t>SS-TWITTER</t>
+  </si>
+  <si>
+    <t>multi_class': 'ovr'</t>
+  </si>
+  <si>
+    <t>n_estimators': 4000</t>
+  </si>
+  <si>
+    <t>C=1</t>
+  </si>
+  <si>
+    <t>gamma=0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +187,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,8 +219,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -172,26 +317,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,6 +465,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -254,7 +516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,7 +551,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,371 +760,930 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="95.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="71" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="17.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>55.17</v>
+      </c>
+      <c r="C3" s="9">
+        <v>55.17</v>
+      </c>
+      <c r="D3" s="9">
+        <v>54.17</v>
+      </c>
+      <c r="E3" s="11">
+        <v>55.29</v>
+      </c>
+      <c r="F3" s="11">
+        <v>55.26</v>
+      </c>
+      <c r="G3" s="12">
+        <v>55</v>
+      </c>
+      <c r="H3" s="11">
+        <v>55.38</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>54.03</v>
+      </c>
+      <c r="C4" s="9">
+        <v>54.03</v>
+      </c>
+      <c r="D4" s="12">
+        <v>53</v>
+      </c>
+      <c r="E4" s="11">
+        <v>54.11</v>
+      </c>
+      <c r="F4" s="9">
+        <v>54.03</v>
+      </c>
+      <c r="G4" s="12">
+        <v>53.79</v>
+      </c>
+      <c r="H4" s="11">
+        <v>54.19</v>
+      </c>
+      <c r="I4" s="2">
+        <v>56</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>55.61</v>
+      </c>
+      <c r="C5" s="12">
+        <v>55.53</v>
+      </c>
+      <c r="D5" s="12">
+        <v>53.95</v>
+      </c>
+      <c r="E5" s="11">
+        <v>55.92</v>
+      </c>
+      <c r="F5" s="12">
+        <v>55.13</v>
+      </c>
+      <c r="G5" s="12">
+        <v>55.45</v>
+      </c>
+      <c r="H5" s="11">
+        <v>55.85</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>54.42</v>
+      </c>
+      <c r="C6" s="9">
+        <v>54.42</v>
+      </c>
+      <c r="D6" s="12">
+        <v>53.32</v>
+      </c>
+      <c r="E6" s="9">
+        <v>54.42</v>
+      </c>
+      <c r="F6" s="12">
+        <v>53.95</v>
+      </c>
+      <c r="G6" s="12">
+        <v>54.27</v>
+      </c>
+      <c r="H6" s="12">
+        <v>54.11</v>
+      </c>
+      <c r="I6" s="3">
+        <v>57</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>53.63</v>
+      </c>
+      <c r="C7" s="9">
+        <v>53.63</v>
+      </c>
+      <c r="D7" s="12">
+        <v>52.69</v>
+      </c>
+      <c r="E7" s="11">
+        <v>53.87</v>
+      </c>
+      <c r="F7" s="9">
+        <v>53.63</v>
+      </c>
+      <c r="G7" s="9">
+        <v>53.63</v>
+      </c>
+      <c r="H7" s="11">
+        <v>54.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="I14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>55.17</v>
-      </c>
-      <c r="C3" s="1">
-        <v>55.17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>54.17</v>
-      </c>
-      <c r="E3" s="7">
-        <v>55.29</v>
-      </c>
-      <c r="F3" s="7">
-        <v>55.26</v>
-      </c>
-      <c r="G3" s="8">
-        <v>55</v>
-      </c>
-      <c r="H3" s="7">
-        <v>55.38</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="B15" s="10">
         <v>66.47</v>
       </c>
-      <c r="L3" s="1">
+      <c r="C15" s="9">
         <v>66.47</v>
       </c>
-      <c r="M3" s="1">
+      <c r="D15" s="9">
         <v>66.47</v>
       </c>
-      <c r="N3" s="1">
+      <c r="E15" s="9">
         <v>66.47</v>
       </c>
-      <c r="O3" s="8">
+      <c r="F15" s="12">
         <v>66.06</v>
       </c>
-      <c r="P3" s="8">
+      <c r="G15" s="12">
         <v>66.27</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="H15" s="9">
         <v>66.47</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
-        <v>54.03</v>
-      </c>
-      <c r="C4" s="1">
-        <v>54.03</v>
-      </c>
-      <c r="D4" s="8">
-        <v>53</v>
-      </c>
-      <c r="E4" s="7">
-        <v>54.11</v>
-      </c>
-      <c r="F4" s="1">
-        <v>54.03</v>
-      </c>
-      <c r="G4" s="8">
-        <v>53.79</v>
-      </c>
-      <c r="H4" s="7">
-        <v>54.19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="B16" s="10">
         <v>58</v>
       </c>
-      <c r="L4" s="1">
+      <c r="C16" s="9">
         <v>58</v>
       </c>
-      <c r="M4" s="8">
+      <c r="D16" s="12">
         <v>57.33</v>
       </c>
-      <c r="N4" s="1">
+      <c r="E16" s="9">
         <v>58</v>
       </c>
-      <c r="O4" s="8">
+      <c r="F16" s="12">
         <v>56.67</v>
       </c>
-      <c r="P4" s="8">
+      <c r="G16" s="12">
         <v>57.33</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="H16" s="9">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="I16" s="2">
+        <v>56</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>55.61</v>
-      </c>
-      <c r="C5" s="8">
-        <v>55.53</v>
-      </c>
-      <c r="D5" s="8">
-        <v>53.95</v>
-      </c>
-      <c r="E5" s="7">
-        <v>55.92</v>
-      </c>
-      <c r="F5" s="8">
-        <v>55.13</v>
-      </c>
-      <c r="G5" s="8">
-        <v>55.45</v>
-      </c>
-      <c r="H5" s="7">
-        <v>55.85</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="B17" s="10">
         <v>64.67</v>
       </c>
-      <c r="L5" s="1">
+      <c r="C17" s="9">
         <v>64.67</v>
       </c>
-      <c r="M5" s="8">
+      <c r="D17" s="12">
         <v>60.67</v>
       </c>
-      <c r="N5" s="8">
+      <c r="E17" s="12">
         <v>62</v>
       </c>
-      <c r="O5" s="8">
+      <c r="F17" s="12">
         <v>62</v>
       </c>
-      <c r="P5" s="1">
+      <c r="G17" s="9">
         <v>64.67</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="H17" s="9">
         <v>64.67</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="I17" s="2">
+        <v>65</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
-        <v>54.42</v>
-      </c>
-      <c r="C6" s="1">
-        <v>54.42</v>
-      </c>
-      <c r="D6" s="8">
-        <v>53.32</v>
-      </c>
-      <c r="E6" s="1">
-        <v>54.42</v>
-      </c>
-      <c r="F6" s="8">
-        <v>53.95</v>
-      </c>
-      <c r="G6" s="8">
-        <v>54.27</v>
-      </c>
-      <c r="H6" s="8">
-        <v>54.11</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="B18" s="10">
         <v>56</v>
       </c>
-      <c r="L6" s="1">
+      <c r="C18" s="9">
         <v>56</v>
       </c>
-      <c r="M6" s="8">
+      <c r="D18" s="12">
         <v>55.33</v>
       </c>
-      <c r="N6" s="1">
+      <c r="E18" s="9">
         <v>56</v>
       </c>
-      <c r="O6" s="8">
+      <c r="F18" s="12">
         <v>55.33</v>
       </c>
-      <c r="P6" s="8">
+      <c r="G18" s="12">
         <v>54.67</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="H18" s="11">
         <v>56.67</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="I18" s="3">
+        <v>64</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>53.63</v>
-      </c>
-      <c r="C7" s="1">
-        <v>53.63</v>
-      </c>
-      <c r="D7" s="8">
-        <v>52.69</v>
-      </c>
-      <c r="E7" s="7">
-        <v>53.87</v>
-      </c>
-      <c r="F7" s="1">
-        <v>53.63</v>
-      </c>
-      <c r="G7" s="1">
-        <v>53.63</v>
-      </c>
-      <c r="H7" s="7">
-        <v>54.27</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="B19" s="10">
         <v>61.33</v>
       </c>
-      <c r="L7" s="1">
+      <c r="C19" s="9">
         <v>61.33</v>
       </c>
-      <c r="M7" s="8">
+      <c r="D19" s="12">
         <v>60</v>
       </c>
-      <c r="N7" s="1">
+      <c r="E19" s="9">
         <v>61.33</v>
       </c>
-      <c r="O7" s="8">
+      <c r="F19" s="12">
         <v>60.67</v>
       </c>
-      <c r="P7" s="1">
+      <c r="G19" s="9">
         <v>61.33</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="H19" s="12">
         <v>60.67</v>
       </c>
+      <c r="I19" s="2">
+        <v>65</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="A13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="15">
+        <v>56</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="25">
+        <v>56</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="15">
+        <v>56</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="15">
+        <v>65</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="15">
+        <v>57</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="15">
+        <v>64</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="17">
+        <v>55</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="17">
+        <v>65</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E15" s="19"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D4:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>